--- a/biology/Zoologie/Hyblaeoidea/Hyblaeoidea.xlsx
+++ b/biology/Zoologie/Hyblaeoidea/Hyblaeoidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Hyblaeidae sont une famille de lépidoptères, l'unique famille de la super-famille des Hyblaeoidea[1]. 
-Elle comporte deux genres et environ 18 espèces[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Hyblaeidae sont une famille de lépidoptères, l'unique famille de la super-famille des Hyblaeoidea. 
+Elle comporte deux genres et environ 18 espèces. 
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Erythrochrus Herrich-Schäffer, 1855
 Hyblaea Fabricius, 1793</t>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Hyblaea est présent dans les tropiques de l'Ancien Monde, et le genre Erythrochrus dans les néotropiques.
 </t>
@@ -574,9 +590,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les plantes hôtes des chenilles sont des familles Bignoniaceae, Verbenaceae, en particulier le genre Avicennia, et Rhizophoraceae et quelques autres familles[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes des chenilles sont des familles Bignoniaceae, Verbenaceae, en particulier le genre Avicennia, et Rhizophoraceae et quelques autres familles.
 </t>
         </is>
       </c>
